--- a/reduced_cluster_center_data.xlsx
+++ b/reduced_cluster_center_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:S6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,80 +441,85 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>('C', 'O', 1.5)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>('N', 'H', 1)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>('S', 'O', 2)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>('C', 'S', 1)</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>('N', 'C', 1)</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>('N', 'C', 1.5)</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>('C', 'C', 1)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>('C', 'C', 1.5)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>('O', 'C', 2)</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>('C', 'H', 1)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>amines</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>ether</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>aldehyde</t>
-        </is>
-      </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>aromatic</t>
+          <t>sulfoxide</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>cycle</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
@@ -525,55 +530,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.381</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>1.988</v>
+        <v>0.063</v>
       </c>
       <c r="D2" t="n">
-        <v>5.845</v>
+        <v>3.197</v>
       </c>
       <c r="E2" t="n">
-        <v>0.867</v>
+        <v>0.082</v>
       </c>
       <c r="F2" t="n">
-        <v>9.430999999999999</v>
+        <v>0.136</v>
       </c>
       <c r="G2" t="n">
-        <v>6.271</v>
+        <v>9.842000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1.005</v>
+        <v>9.042999999999999</v>
       </c>
       <c r="I2" t="n">
-        <v>23.411</v>
+        <v>1.604</v>
       </c>
       <c r="J2" t="n">
-        <v>18.678</v>
+        <v>26.709</v>
       </c>
       <c r="K2" t="n">
-        <v>25.697</v>
+        <v>15.932</v>
       </c>
       <c r="L2" t="n">
-        <v>3.171</v>
+        <v>29.992</v>
       </c>
       <c r="M2" t="n">
-        <v>2.177</v>
+        <v>4.546</v>
       </c>
       <c r="N2" t="n">
-        <v>2.028</v>
+        <v>0.968</v>
       </c>
       <c r="O2" t="n">
-        <v>0.572</v>
+        <v>3.468</v>
       </c>
       <c r="P2" t="n">
-        <v>1.005</v>
+        <v>0.061</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.341</v>
+        <v>0.082</v>
       </c>
       <c r="R2" t="n">
-        <v>356.909</v>
+        <v>1.817</v>
+      </c>
+      <c r="S2" t="n">
+        <v>307.586</v>
       </c>
     </row>
     <row r="3">
@@ -581,55 +589,58 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.011</v>
+        <v>0.608</v>
       </c>
       <c r="C3" t="n">
-        <v>1.923</v>
+        <v>0.145</v>
       </c>
       <c r="D3" t="n">
-        <v>0.348</v>
+        <v>2.184</v>
       </c>
       <c r="E3" t="n">
-        <v>1.03</v>
+        <v>0.191</v>
       </c>
       <c r="F3" t="n">
-        <v>1.257</v>
+        <v>0.575</v>
       </c>
       <c r="G3" t="n">
-        <v>3.629</v>
+        <v>3.038</v>
       </c>
       <c r="H3" t="n">
-        <v>0.202</v>
+        <v>4.949</v>
       </c>
       <c r="I3" t="n">
-        <v>4.042</v>
+        <v>0.358</v>
       </c>
       <c r="J3" t="n">
-        <v>6.107</v>
+        <v>9.709</v>
       </c>
       <c r="K3" t="n">
-        <v>6.384</v>
+        <v>7.772</v>
       </c>
       <c r="L3" t="n">
-        <v>1.574</v>
+        <v>12.247</v>
       </c>
       <c r="M3" t="n">
-        <v>1.382</v>
+        <v>2.579</v>
       </c>
       <c r="N3" t="n">
-        <v>0.409</v>
+        <v>1.555</v>
       </c>
       <c r="O3" t="n">
-        <v>0.225</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>0.202</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.962</v>
+        <v>0.191</v>
       </c>
       <c r="R3" t="n">
-        <v>169.801</v>
+        <v>0.971</v>
+      </c>
+      <c r="S3" t="n">
+        <v>209.485</v>
       </c>
     </row>
     <row r="4">
@@ -637,55 +648,58 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.558</v>
+        <v>2.77</v>
       </c>
       <c r="C4" t="n">
-        <v>2.147</v>
+        <v>0.06</v>
       </c>
       <c r="D4" t="n">
-        <v>10.156</v>
+        <v>0.749</v>
       </c>
       <c r="E4" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.08</v>
       </c>
       <c r="F4" t="n">
-        <v>16.684</v>
+        <v>0.11</v>
       </c>
       <c r="G4" t="n">
-        <v>6.863</v>
+        <v>4.526</v>
       </c>
       <c r="H4" t="n">
-        <v>1.485</v>
+        <v>24.051</v>
       </c>
       <c r="I4" t="n">
-        <v>40.272</v>
+        <v>0.426</v>
       </c>
       <c r="J4" t="n">
-        <v>27.902</v>
+        <v>40.298</v>
       </c>
       <c r="K4" t="n">
-        <v>42.593</v>
+        <v>25.528</v>
       </c>
       <c r="L4" t="n">
-        <v>4.222</v>
+        <v>41.361</v>
       </c>
       <c r="M4" t="n">
-        <v>2.483</v>
+        <v>1.538</v>
       </c>
       <c r="N4" t="n">
-        <v>3.356</v>
+        <v>3.423</v>
       </c>
       <c r="O4" t="n">
-        <v>0.801</v>
+        <v>1.537</v>
       </c>
       <c r="P4" t="n">
-        <v>1.485</v>
+        <v>1.18</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.325</v>
+        <v>0.08</v>
       </c>
       <c r="R4" t="n">
-        <v>479.789</v>
+        <v>4.398</v>
+      </c>
+      <c r="S4" t="n">
+        <v>409.29</v>
       </c>
     </row>
     <row r="5">
@@ -693,55 +707,58 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.187</v>
+        <v>1.036</v>
       </c>
       <c r="C5" t="n">
-        <v>2.19</v>
+        <v>0.415</v>
       </c>
       <c r="D5" t="n">
-        <v>6.024</v>
+        <v>1.12</v>
       </c>
       <c r="E5" t="n">
-        <v>0.538</v>
+        <v>0.13</v>
       </c>
       <c r="F5" t="n">
-        <v>11.243</v>
+        <v>0.499</v>
       </c>
       <c r="G5" t="n">
-        <v>3.644</v>
+        <v>0.628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.757</v>
+        <v>5.29</v>
       </c>
       <c r="I5" t="n">
-        <v>27.11</v>
+        <v>18.261</v>
       </c>
       <c r="J5" t="n">
-        <v>17.927</v>
+        <v>13.075</v>
       </c>
       <c r="K5" t="n">
-        <v>29.537</v>
+        <v>22.594</v>
       </c>
       <c r="L5" t="n">
-        <v>2.853</v>
+        <v>14.658</v>
       </c>
       <c r="M5" t="n">
-        <v>1.621</v>
+        <v>2.274</v>
       </c>
       <c r="N5" t="n">
-        <v>2.189</v>
+        <v>1.954</v>
       </c>
       <c r="O5" t="n">
-        <v>0.505</v>
+        <v>0.212</v>
       </c>
       <c r="P5" t="n">
-        <v>0.757</v>
+        <v>0.335</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.781</v>
+        <v>0.13</v>
       </c>
       <c r="R5" t="n">
-        <v>319.317</v>
+        <v>1.124</v>
+      </c>
+      <c r="S5" t="n">
+        <v>407.514</v>
       </c>
     </row>
     <row r="6">
@@ -749,55 +766,58 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.749</v>
+        <v>0.982</v>
       </c>
       <c r="C6" t="n">
-        <v>1.612</v>
+        <v>0.372</v>
       </c>
       <c r="D6" t="n">
-        <v>5.619</v>
+        <v>1.748</v>
       </c>
       <c r="E6" t="n">
-        <v>1.477</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>6.216</v>
+        <v>0.117</v>
       </c>
       <c r="G6" t="n">
-        <v>11.217</v>
+        <v>4.011</v>
       </c>
       <c r="H6" t="n">
-        <v>1.482</v>
+        <v>8.304</v>
       </c>
       <c r="I6" t="n">
-        <v>16.896</v>
+        <v>23.589</v>
       </c>
       <c r="J6" t="n">
-        <v>20.323</v>
+        <v>31.967</v>
       </c>
       <c r="K6" t="n">
-        <v>18.92</v>
+        <v>32.151</v>
       </c>
       <c r="L6" t="n">
-        <v>3.795</v>
+        <v>34.039</v>
       </c>
       <c r="M6" t="n">
-        <v>3.226</v>
+        <v>2.589</v>
       </c>
       <c r="N6" t="n">
-        <v>1.759</v>
+        <v>0.672</v>
       </c>
       <c r="O6" t="n">
-        <v>0.703</v>
+        <v>1.446</v>
       </c>
       <c r="P6" t="n">
-        <v>1.482</v>
+        <v>0.55</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.391</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>430.567</v>
+        <v>0.976</v>
+      </c>
+      <c r="S6" t="n">
+        <v>490.443</v>
       </c>
     </row>
   </sheetData>

--- a/reduced_cluster_center_data.xlsx
+++ b/reduced_cluster_center_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S6"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,92 +436,117 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 1)</t>
+          <t>('N', 'H', 1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 1.5)</t>
+          <t>('N', 'C', 1)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'H', 1)</t>
+          <t>('C', 'N', 3)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>('S', 'O', 2)</t>
+          <t>('C', 'S', 1)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'S', 1)</t>
+          <t>('O', 'C', 1.5)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1)</t>
+          <t>('F', 'C', 1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>('C', 'O', 2)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>('C', 'C', 1)</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>('C', 'C', 1.5)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>('C', 'H', 1)</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>O</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>amines</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>ether</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>sulfoxide</t>
-        </is>
-      </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>cycle</t>
+          <t>aldehyde</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
+          <t>esters</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>cyanide</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>aromatic</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
           <t>weight</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>logP</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>SAS</t>
         </is>
       </c>
     </row>
@@ -530,58 +555,73 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.222</v>
       </c>
       <c r="C2" t="n">
-        <v>0.063</v>
+        <v>5.632</v>
       </c>
       <c r="D2" t="n">
-        <v>3.197</v>
+        <v>0.068</v>
       </c>
       <c r="E2" t="n">
-        <v>0.082</v>
+        <v>0.065</v>
       </c>
       <c r="F2" t="n">
-        <v>0.136</v>
+        <v>0.159</v>
       </c>
       <c r="G2" t="n">
-        <v>9.842000000000001</v>
+        <v>0.344</v>
       </c>
       <c r="H2" t="n">
-        <v>9.042999999999999</v>
+        <v>1.821</v>
       </c>
       <c r="I2" t="n">
-        <v>1.604</v>
+        <v>12.618</v>
       </c>
       <c r="J2" t="n">
-        <v>26.709</v>
+        <v>5.806</v>
       </c>
       <c r="K2" t="n">
-        <v>15.932</v>
+        <v>25.543</v>
       </c>
       <c r="L2" t="n">
-        <v>29.992</v>
+        <v>20.337</v>
       </c>
       <c r="M2" t="n">
-        <v>4.546</v>
+        <v>0.344</v>
       </c>
       <c r="N2" t="n">
+        <v>26.93</v>
+      </c>
+      <c r="O2" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3.049</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.958</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.113</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.068</v>
+      </c>
+      <c r="U2" t="n">
         <v>0.968</v>
       </c>
-      <c r="O2" t="n">
-        <v>3.468</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.061</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.082</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.817</v>
-      </c>
-      <c r="S2" t="n">
-        <v>307.586</v>
+      <c r="V2" t="n">
+        <v>360.344</v>
+      </c>
+      <c r="W2" t="n">
+        <v>2.636</v>
+      </c>
+      <c r="X2" t="n">
+        <v>3.322</v>
       </c>
     </row>
     <row r="3">
@@ -589,58 +629,73 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.608</v>
+        <v>1.23</v>
       </c>
       <c r="C3" t="n">
-        <v>0.145</v>
+        <v>0.36</v>
       </c>
       <c r="D3" t="n">
-        <v>2.184</v>
+        <v>0.153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.191</v>
+        <v>0.681</v>
       </c>
       <c r="F3" t="n">
-        <v>0.575</v>
+        <v>0.307</v>
       </c>
       <c r="G3" t="n">
-        <v>3.038</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>4.949</v>
+        <v>0.879</v>
       </c>
       <c r="I3" t="n">
-        <v>0.358</v>
+        <v>1.867</v>
       </c>
       <c r="J3" t="n">
-        <v>9.709</v>
+        <v>6.473</v>
       </c>
       <c r="K3" t="n">
-        <v>7.772</v>
+        <v>4.456</v>
       </c>
       <c r="L3" t="n">
-        <v>12.247</v>
+        <v>9.695</v>
       </c>
       <c r="M3" t="n">
-        <v>2.579</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
-        <v>1.555</v>
+        <v>6.261</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>2.021</v>
       </c>
       <c r="P3" t="n">
-        <v>0.08699999999999999</v>
+        <v>2.301</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.191</v>
+        <v>0.346</v>
       </c>
       <c r="R3" t="n">
-        <v>0.971</v>
+        <v>0.879</v>
       </c>
       <c r="S3" t="n">
-        <v>209.485</v>
+        <v>0.193</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.153</v>
+      </c>
+      <c r="U3" t="n">
+        <v>1.736</v>
+      </c>
+      <c r="V3" t="n">
+        <v>270.905</v>
+      </c>
+      <c r="W3" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="X3" t="n">
+        <v>2.416</v>
       </c>
     </row>
     <row r="4">
@@ -648,58 +703,73 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.77</v>
+        <v>2.424</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06</v>
+        <v>8.275</v>
       </c>
       <c r="D4" t="n">
-        <v>0.749</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08</v>
+        <v>0.191</v>
       </c>
       <c r="F4" t="n">
-        <v>0.11</v>
+        <v>0.141</v>
       </c>
       <c r="G4" t="n">
-        <v>4.526</v>
+        <v>0.698</v>
       </c>
       <c r="H4" t="n">
-        <v>24.051</v>
+        <v>1.514</v>
       </c>
       <c r="I4" t="n">
-        <v>0.426</v>
+        <v>6.602</v>
       </c>
       <c r="J4" t="n">
-        <v>40.298</v>
+        <v>1.537</v>
       </c>
       <c r="K4" t="n">
-        <v>25.528</v>
+        <v>14.53</v>
       </c>
       <c r="L4" t="n">
-        <v>41.361</v>
+        <v>12.215</v>
       </c>
       <c r="M4" t="n">
-        <v>1.538</v>
+        <v>0.698</v>
       </c>
       <c r="N4" t="n">
-        <v>3.423</v>
+        <v>17.15</v>
       </c>
       <c r="O4" t="n">
-        <v>1.537</v>
+        <v>4.421</v>
       </c>
       <c r="P4" t="n">
-        <v>1.18</v>
+        <v>1.384</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.08</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>4.398</v>
+        <v>1.514</v>
       </c>
       <c r="S4" t="n">
-        <v>409.29</v>
+        <v>0.052</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.482</v>
+      </c>
+      <c r="V4" t="n">
+        <v>291</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="X4" t="n">
+        <v>3.082</v>
       </c>
     </row>
     <row r="5">
@@ -707,117 +777,73 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.036</v>
+        <v>0.151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.415</v>
+        <v>1.555</v>
       </c>
       <c r="D5" t="n">
-        <v>1.12</v>
+        <v>0.098</v>
       </c>
       <c r="E5" t="n">
-        <v>0.13</v>
+        <v>0.382</v>
       </c>
       <c r="F5" t="n">
-        <v>0.499</v>
+        <v>0.193</v>
       </c>
       <c r="G5" t="n">
-        <v>0.628</v>
+        <v>0.717</v>
       </c>
       <c r="H5" t="n">
-        <v>5.29</v>
+        <v>1.872</v>
       </c>
       <c r="I5" t="n">
-        <v>18.261</v>
+        <v>4.231</v>
       </c>
       <c r="J5" t="n">
-        <v>13.075</v>
+        <v>14.767</v>
       </c>
       <c r="K5" t="n">
-        <v>22.594</v>
+        <v>15.633</v>
       </c>
       <c r="L5" t="n">
-        <v>14.658</v>
+        <v>19.922</v>
       </c>
       <c r="M5" t="n">
-        <v>2.274</v>
+        <v>0.717</v>
       </c>
       <c r="N5" t="n">
-        <v>1.954</v>
+        <v>16.026</v>
       </c>
       <c r="O5" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.755</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.846</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.872</v>
+      </c>
+      <c r="S5" t="n">
         <v>0.212</v>
       </c>
-      <c r="P5" t="n">
-        <v>0.335</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.124</v>
-      </c>
-      <c r="S5" t="n">
-        <v>407.514</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.982</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.372</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.748</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.117</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.011</v>
-      </c>
-      <c r="H6" t="n">
-        <v>8.304</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.589</v>
-      </c>
-      <c r="J6" t="n">
-        <v>31.967</v>
-      </c>
-      <c r="K6" t="n">
-        <v>32.151</v>
-      </c>
-      <c r="L6" t="n">
-        <v>34.039</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2.589</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.672</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.446</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0.07099999999999999</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0.976</v>
-      </c>
-      <c r="S6" t="n">
-        <v>490.443</v>
+      <c r="T5" t="n">
+        <v>0.098</v>
+      </c>
+      <c r="U5" t="n">
+        <v>2.552</v>
+      </c>
+      <c r="V5" t="n">
+        <v>381.678</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3.584</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1.919</v>
       </c>
     </row>
   </sheetData>

--- a/reduced_cluster_center_data.xlsx
+++ b/reduced_cluster_center_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,115 +436,105 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'H', 1)</t>
+          <t>('N', 'C', 1)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>('N', 'C', 1)</t>
+          <t>('S', 'H', 1)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'N', 3)</t>
+          <t>('C', 'S', 1.5)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'S', 1)</t>
+          <t>('O', 'C', 1.5)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>('O', 'C', 1.5)</t>
+          <t>('C', 'O', 2)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>('F', 'C', 1)</t>
+          <t>('C', 'O', 1)</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'O', 2)</t>
+          <t>('C', 'C', 1)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'C', 1)</t>
+          <t>('C', 'C', 1.5)</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'C', 1.5)</t>
+          <t>('C', 'H', 1)</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>('C', 'H', 1)</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>H</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>O</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>amines</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>ether</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>O</t>
+          <t>aldehyde</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>amines</t>
+          <t>sulfide</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>aldehyde</t>
+          <t>aromatic</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>esters</t>
+          <t>cycle</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>cyanide</t>
+          <t>weight</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>aromatic</t>
+          <t>logP</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>weight</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>logP</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>SAS</t>
         </is>
@@ -555,73 +545,67 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.222</v>
+        <v>3.507</v>
       </c>
       <c r="C2" t="n">
-        <v>5.632</v>
+        <v>0.19</v>
       </c>
       <c r="D2" t="n">
-        <v>0.068</v>
+        <v>0.368</v>
       </c>
       <c r="E2" t="n">
-        <v>0.065</v>
+        <v>0.157</v>
       </c>
       <c r="F2" t="n">
-        <v>0.159</v>
+        <v>0.874</v>
       </c>
       <c r="G2" t="n">
-        <v>0.344</v>
+        <v>2.316</v>
       </c>
       <c r="H2" t="n">
-        <v>1.821</v>
+        <v>0.678</v>
       </c>
       <c r="I2" t="n">
-        <v>12.618</v>
+        <v>9.574999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>5.806</v>
+        <v>12.021</v>
       </c>
       <c r="K2" t="n">
-        <v>25.543</v>
+        <v>13.436</v>
       </c>
       <c r="L2" t="n">
-        <v>20.337</v>
+        <v>13.599</v>
       </c>
       <c r="M2" t="n">
-        <v>0.344</v>
+        <v>2.777</v>
       </c>
       <c r="N2" t="n">
-        <v>26.93</v>
+        <v>1.407</v>
       </c>
       <c r="O2" t="n">
-        <v>2.352</v>
+        <v>1.067</v>
       </c>
       <c r="P2" t="n">
-        <v>3.049</v>
+        <v>0.874</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.958</v>
+        <v>0.083</v>
       </c>
       <c r="R2" t="n">
-        <v>1.821</v>
+        <v>1.933</v>
       </c>
       <c r="S2" t="n">
-        <v>0.113</v>
+        <v>0.013</v>
       </c>
       <c r="T2" t="n">
-        <v>0.068</v>
+        <v>187.431</v>
       </c>
       <c r="U2" t="n">
-        <v>0.968</v>
+        <v>2.123</v>
       </c>
       <c r="V2" t="n">
-        <v>360.344</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2.636</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.322</v>
+        <v>2.319</v>
       </c>
     </row>
     <row r="3">
@@ -629,73 +613,67 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.23</v>
+        <v>7.642</v>
       </c>
       <c r="C3" t="n">
-        <v>0.36</v>
+        <v>0.05</v>
       </c>
       <c r="D3" t="n">
-        <v>0.153</v>
+        <v>0.095</v>
       </c>
       <c r="E3" t="n">
-        <v>0.681</v>
+        <v>0.148</v>
       </c>
       <c r="F3" t="n">
-        <v>0.307</v>
+        <v>1.317</v>
       </c>
       <c r="G3" t="n">
-        <v>1.03</v>
+        <v>0.456</v>
       </c>
       <c r="H3" t="n">
-        <v>0.879</v>
+        <v>18.148</v>
       </c>
       <c r="I3" t="n">
-        <v>1.867</v>
+        <v>1.216</v>
       </c>
       <c r="J3" t="n">
-        <v>6.473</v>
+        <v>34.955</v>
       </c>
       <c r="K3" t="n">
-        <v>4.456</v>
+        <v>21.98</v>
       </c>
       <c r="L3" t="n">
-        <v>9.695</v>
+        <v>36.906</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.471</v>
       </c>
       <c r="N3" t="n">
-        <v>6.261</v>
+        <v>2.51</v>
       </c>
       <c r="O3" t="n">
-        <v>2.021</v>
+        <v>0.187</v>
       </c>
       <c r="P3" t="n">
-        <v>2.301</v>
+        <v>1.317</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.346</v>
+        <v>0.029</v>
       </c>
       <c r="R3" t="n">
-        <v>0.879</v>
+        <v>0.367</v>
       </c>
       <c r="S3" t="n">
-        <v>0.193</v>
+        <v>3.418</v>
       </c>
       <c r="T3" t="n">
-        <v>0.153</v>
+        <v>280.898</v>
       </c>
       <c r="U3" t="n">
-        <v>1.736</v>
+        <v>2.338</v>
       </c>
       <c r="V3" t="n">
-        <v>270.905</v>
-      </c>
-      <c r="W3" t="n">
-        <v>2.364</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2.416</v>
+        <v>4.402</v>
       </c>
     </row>
     <row r="4">
@@ -703,73 +681,67 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2.424</v>
+        <v>0.644</v>
       </c>
       <c r="C4" t="n">
-        <v>8.275</v>
+        <v>0.036</v>
       </c>
       <c r="D4" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.074</v>
       </c>
       <c r="E4" t="n">
-        <v>0.191</v>
+        <v>0.19</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141</v>
+        <v>0.6</v>
       </c>
       <c r="G4" t="n">
-        <v>0.698</v>
+        <v>7.832</v>
       </c>
       <c r="H4" t="n">
-        <v>1.514</v>
+        <v>7.493</v>
       </c>
       <c r="I4" t="n">
-        <v>6.602</v>
+        <v>6.12</v>
       </c>
       <c r="J4" t="n">
-        <v>1.537</v>
+        <v>26.169</v>
       </c>
       <c r="K4" t="n">
-        <v>14.53</v>
+        <v>16.944</v>
       </c>
       <c r="L4" t="n">
-        <v>12.215</v>
+        <v>26.64</v>
       </c>
       <c r="M4" t="n">
-        <v>0.698</v>
+        <v>5.717</v>
       </c>
       <c r="N4" t="n">
-        <v>17.15</v>
+        <v>0.338</v>
       </c>
       <c r="O4" t="n">
-        <v>4.421</v>
+        <v>3.646</v>
       </c>
       <c r="P4" t="n">
-        <v>1.384</v>
+        <v>0.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>0.034</v>
       </c>
       <c r="R4" t="n">
-        <v>1.514</v>
+        <v>1.02</v>
       </c>
       <c r="S4" t="n">
-        <v>0.052</v>
+        <v>1.018</v>
       </c>
       <c r="T4" t="n">
-        <v>0.08699999999999999</v>
+        <v>225.663</v>
       </c>
       <c r="U4" t="n">
-        <v>0.482</v>
+        <v>1.889</v>
       </c>
       <c r="V4" t="n">
-        <v>291</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.154</v>
-      </c>
-      <c r="X4" t="n">
-        <v>3.082</v>
+        <v>3.242</v>
       </c>
     </row>
     <row r="5">
@@ -777,73 +749,67 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.151</v>
+        <v>13.453</v>
       </c>
       <c r="C5" t="n">
-        <v>1.555</v>
+        <v>0.021</v>
       </c>
       <c r="D5" t="n">
-        <v>0.098</v>
+        <v>0.018</v>
       </c>
       <c r="E5" t="n">
-        <v>0.382</v>
+        <v>0.028</v>
       </c>
       <c r="F5" t="n">
-        <v>0.193</v>
+        <v>2.195</v>
       </c>
       <c r="G5" t="n">
-        <v>0.717</v>
+        <v>0.635</v>
       </c>
       <c r="H5" t="n">
-        <v>1.872</v>
+        <v>8.119</v>
       </c>
       <c r="I5" t="n">
-        <v>4.231</v>
+        <v>1.113</v>
       </c>
       <c r="J5" t="n">
-        <v>14.767</v>
+        <v>22.878</v>
       </c>
       <c r="K5" t="n">
-        <v>15.633</v>
+        <v>15.945</v>
       </c>
       <c r="L5" t="n">
-        <v>19.922</v>
+        <v>25.361</v>
       </c>
       <c r="M5" t="n">
-        <v>0.717</v>
+        <v>2.347</v>
       </c>
       <c r="N5" t="n">
-        <v>16.026</v>
+        <v>4.334</v>
       </c>
       <c r="O5" t="n">
-        <v>0.794</v>
+        <v>0.374</v>
       </c>
       <c r="P5" t="n">
-        <v>4.755</v>
+        <v>2.195</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.846</v>
+        <v>0.024</v>
       </c>
       <c r="R5" t="n">
-        <v>1.872</v>
+        <v>0.08799999999999999</v>
       </c>
       <c r="S5" t="n">
-        <v>0.212</v>
+        <v>2.725</v>
       </c>
       <c r="T5" t="n">
-        <v>0.098</v>
+        <v>266.444</v>
       </c>
       <c r="U5" t="n">
-        <v>2.552</v>
+        <v>0.472</v>
       </c>
       <c r="V5" t="n">
-        <v>381.678</v>
-      </c>
-      <c r="W5" t="n">
-        <v>3.584</v>
-      </c>
-      <c r="X5" t="n">
-        <v>1.919</v>
+        <v>3.101</v>
       </c>
     </row>
   </sheetData>
